--- a/Career Center/Values Exercise.xlsx
+++ b/Career Center/Values Exercise.xlsx
@@ -17,6 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$12:$D$97</definedName>
     <definedName name="Locator">Sheet1!$LCD$524299</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$L$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -501,21 +502,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -574,7 +561,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="99060" y="137160"/>
-          <a:ext cx="1804525" cy="724205"/>
+          <a:ext cx="1804525" cy="693725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -851,8 +838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8"/>
@@ -1720,10 +1707,10 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="C13:D95 C96:C97">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$D13="No"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D13="Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1736,7 +1723,10 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="94" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="10" max="30" man="1"/>
+  </colBreaks>
   <customProperties>
     <customPr name="%locator_row%" r:id="rId2"/>
   </customProperties>
